--- a/AccController/AccController.Web/Content/templates/import/ais/CapNhatTTUser.xlsx
+++ b/AccController/AccController.Web/Content/templates/import/ais/CapNhatTTUser.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>{Field:"Email"}</t>
-  </si>
-  <si>
-    <t>{Field:"Priority"}</t>
   </si>
   <si>
     <t>{Field:"Phone"}</t>
@@ -5963,7 +5960,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5997,22 +5994,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
